--- a/Project/1_ShowerTerminal/Hardware/1_Schematic/Terminal_BOM.xlsx
+++ b/Project/1_ShowerTerminal/Hardware/1_Schematic/Terminal_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PKU\SmartPublicBathroom\Project\1_ShowerTerminal\Hardware\1_Schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF196A9-F335-40B5-9695-C70C6DCE9852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD9AF6-D9C5-45F7-8451-DB88F40A122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="2205" windowWidth="28800" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23910" yWindow="1080" windowWidth="14265" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="182">
   <si>
     <t>DY-IR333C-A</t>
   </si>
@@ -530,15 +530,9 @@
     <t>U1</t>
   </si>
   <si>
-    <t>TLV1117LV33_DCY_4</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>TLV2374_D_14</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -551,9 +545,6 @@
     <t>U5</t>
   </si>
   <si>
-    <t>STM32F302_303R1</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -561,6 +552,50 @@
   </si>
   <si>
     <t>购买情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据手册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x4, 2.54mm, C2718488</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F303RB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLV1117LV33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLV2374</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x8, 2.54mm, C27438</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x3, 2.54mm, C146243</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x2, 2.54mm, C49661</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x2, 5mm, C474904</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +661,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -640,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,6 +714,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -938,18 +1012,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A117A90-0C3F-41B1-8E92-457460A557A0}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20.625" style="1"/>
+    <col min="1" max="6" width="20.625" style="1"/>
+    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="20.625" style="2"/>
+    <col min="10" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -963,14 +1040,24 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+        <v>170</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -980,10 +1067,14 @@
         <v>23</v>
       </c>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
@@ -991,10 +1082,14 @@
         <v>23</v>
       </c>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1002,10 +1097,14 @@
         <v>23</v>
       </c>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1013,10 +1112,14 @@
         <v>23</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,10 +1127,14 @@
         <v>23</v>
       </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1035,10 +1142,14 @@
         <v>23</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1046,10 +1157,14 @@
         <v>23</v>
       </c>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1057,10 +1172,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1068,10 +1187,14 @@
         <v>23</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1079,10 +1202,14 @@
         <v>23</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1090,10 +1217,14 @@
         <v>23</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1101,10 +1232,14 @@
         <v>23</v>
       </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1112,10 +1247,14 @@
         <v>23</v>
       </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1123,10 +1262,14 @@
         <v>23</v>
       </c>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1134,10 +1277,14 @@
         <v>23</v>
       </c>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1145,10 +1292,14 @@
         <v>23</v>
       </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1156,10 +1307,14 @@
         <v>23</v>
       </c>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1167,12 +1322,16 @@
         <v>23</v>
       </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="F19" s="6"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1182,10 +1341,14 @@
         <v>42</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1193,12 +1356,16 @@
         <v>42</v>
       </c>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="8">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1208,10 +1375,14 @@
         <v>45</v>
       </c>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1219,10 +1390,14 @@
         <v>45</v>
       </c>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1230,10 +1405,14 @@
         <v>45</v>
       </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1241,10 +1420,14 @@
         <v>45</v>
       </c>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1252,10 +1435,14 @@
         <v>45</v>
       </c>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1263,8 +1450,12 @@
         <v>45</v>
       </c>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="6"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -1278,8 +1469,12 @@
         <v>52</v>
       </c>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="6"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -1293,12 +1488,16 @@
         <v>54</v>
       </c>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="F29" s="6"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>6</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="8">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1308,10 +1507,14 @@
         <v>56</v>
       </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1319,12 +1522,16 @@
         <v>56</v>
       </c>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="F31" s="6"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="8">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1334,10 +1541,14 @@
         <v>59</v>
       </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1345,8 +1556,12 @@
         <v>59</v>
       </c>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="6"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1360,8 +1575,12 @@
         <v>62</v>
       </c>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="6"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1375,8 +1594,12 @@
         <v>64</v>
       </c>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="6"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1390,12 +1613,16 @@
         <v>66</v>
       </c>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="F36" s="6"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>11</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="8">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1405,10 +1632,14 @@
         <v>68</v>
       </c>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1416,10 +1647,14 @@
         <v>68</v>
       </c>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1427,8 +1662,12 @@
         <v>68</v>
       </c>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="6"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -1442,8 +1681,12 @@
         <v>72</v>
       </c>
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="6"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>13</v>
       </c>
@@ -1457,8 +1700,12 @@
         <v>74</v>
       </c>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="6"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>14</v>
       </c>
@@ -1472,8 +1719,12 @@
         <v>76</v>
       </c>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="6"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>15</v>
       </c>
@@ -1487,12 +1738,16 @@
         <v>78</v>
       </c>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="F43" s="6"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>16</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="8">
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1502,10 +1757,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="F44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -1513,10 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="F45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="1" t="s">
         <v>81</v>
       </c>
@@ -1524,10 +1785,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="F46" s="7"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="1" t="s">
         <v>82</v>
       </c>
@@ -1535,8 +1799,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="7"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>17</v>
       </c>
@@ -1550,8 +1817,11 @@
         <v>1</v>
       </c>
       <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="7"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>18</v>
       </c>
@@ -1565,8 +1835,11 @@
         <v>85</v>
       </c>
       <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="7"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>19</v>
       </c>
@@ -1580,8 +1853,13 @@
         <v>87</v>
       </c>
       <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="7"/>
+      <c r="H50" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>20</v>
       </c>
@@ -1595,8 +1873,13 @@
         <v>89</v>
       </c>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="7"/>
+      <c r="H51" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -1610,8 +1893,13 @@
         <v>91</v>
       </c>
       <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="6"/>
+      <c r="H52" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>22</v>
       </c>
@@ -1625,8 +1913,13 @@
         <v>93</v>
       </c>
       <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="7"/>
+      <c r="H53" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -1640,8 +1933,13 @@
         <v>95</v>
       </c>
       <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="7"/>
+      <c r="H54" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -1655,8 +1953,13 @@
         <v>97</v>
       </c>
       <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="6"/>
+      <c r="H55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>25</v>
       </c>
@@ -1670,8 +1973,13 @@
         <v>99</v>
       </c>
       <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="6"/>
+      <c r="H56" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>26</v>
       </c>
@@ -1685,12 +1993,15 @@
         <v>17</v>
       </c>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="F57" s="6"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>27</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="8">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1700,10 +2011,13 @@
         <v>102</v>
       </c>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="F58" s="6"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1" t="s">
         <v>103</v>
       </c>
@@ -1711,10 +2025,13 @@
         <v>102</v>
       </c>
       <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="F59" s="6"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
         <v>104</v>
       </c>
@@ -1722,8 +2039,11 @@
         <v>102</v>
       </c>
       <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="6"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>28</v>
       </c>
@@ -1737,8 +2057,11 @@
         <v>2</v>
       </c>
       <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="7"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>29</v>
       </c>
@@ -1752,12 +2075,15 @@
         <v>3</v>
       </c>
       <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="F62" s="7"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
         <v>30</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="8">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1767,10 +2093,13 @@
         <v>108</v>
       </c>
       <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="F63" s="6"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="1" t="s">
         <v>109</v>
       </c>
@@ -1778,10 +2107,13 @@
         <v>108</v>
       </c>
       <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="F64" s="6"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
@@ -1789,10 +2121,13 @@
         <v>108</v>
       </c>
       <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="F65" s="6"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="1" t="s">
         <v>111</v>
       </c>
@@ -1800,10 +2135,13 @@
         <v>108</v>
       </c>
       <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="F66" s="6"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="1" t="s">
         <v>112</v>
       </c>
@@ -1811,10 +2149,13 @@
         <v>108</v>
       </c>
       <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="F67" s="6"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1" t="s">
         <v>113</v>
       </c>
@@ -1822,10 +2163,13 @@
         <v>108</v>
       </c>
       <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="F68" s="6"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="1" t="s">
         <v>114</v>
       </c>
@@ -1833,10 +2177,13 @@
         <v>108</v>
       </c>
       <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="F69" s="6"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="1" t="s">
         <v>115</v>
       </c>
@@ -1844,10 +2191,13 @@
         <v>108</v>
       </c>
       <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="F70" s="6"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="1" t="s">
         <v>116</v>
       </c>
@@ -1855,10 +2205,13 @@
         <v>108</v>
       </c>
       <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="F71" s="6"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
         <v>117</v>
       </c>
@@ -1866,12 +2219,15 @@
         <v>108</v>
       </c>
       <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="F72" s="6"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
         <v>31</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="8">
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1881,10 +2237,13 @@
         <v>0</v>
       </c>
       <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="F73" s="6"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="1" t="s">
         <v>119</v>
       </c>
@@ -1892,10 +2251,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="F74" s="6"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="1" t="s">
         <v>120</v>
       </c>
@@ -1903,10 +2265,13 @@
         <v>0</v>
       </c>
       <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="F75" s="6"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="1" t="s">
         <v>121</v>
       </c>
@@ -1914,10 +2279,13 @@
         <v>0</v>
       </c>
       <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="F76" s="6"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="1" t="s">
         <v>122</v>
       </c>
@@ -1925,8 +2293,11 @@
         <v>0</v>
       </c>
       <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="6"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>32</v>
       </c>
@@ -1940,12 +2311,15 @@
         <v>4</v>
       </c>
       <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="F78" s="6"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
         <v>33</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="8">
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -1955,10 +2329,13 @@
         <v>100</v>
       </c>
       <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="F79" s="6"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="1" t="s">
         <v>125</v>
       </c>
@@ -1966,10 +2343,13 @@
         <v>100</v>
       </c>
       <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="F80" s="6"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="1" t="s">
         <v>126</v>
       </c>
@@ -1977,10 +2357,13 @@
         <v>100</v>
       </c>
       <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="F81" s="6"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="1" t="s">
         <v>127</v>
       </c>
@@ -1988,12 +2371,15 @@
         <v>100</v>
       </c>
       <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+      <c r="F82" s="6"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
         <v>34</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="8">
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2003,10 +2389,13 @@
         <v>220</v>
       </c>
       <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="F83" s="6"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="1" t="s">
         <v>129</v>
       </c>
@@ -2014,8 +2403,11 @@
         <v>220</v>
       </c>
       <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="6"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>35</v>
       </c>
@@ -2029,12 +2421,15 @@
         <v>5</v>
       </c>
       <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="F85" s="6"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
         <v>36</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="8">
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2044,10 +2439,13 @@
         <v>6</v>
       </c>
       <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="F86" s="6"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="1" t="s">
         <v>132</v>
       </c>
@@ -2055,8 +2453,11 @@
         <v>6</v>
       </c>
       <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="6"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>37</v>
       </c>
@@ -2070,12 +2471,15 @@
         <v>7</v>
       </c>
       <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="F88" s="6"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
         <v>38</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="8">
         <v>8</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2085,10 +2489,13 @@
         <v>135</v>
       </c>
       <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="F89" s="6"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="1" t="s">
         <v>136</v>
       </c>
@@ -2096,10 +2503,13 @@
         <v>135</v>
       </c>
       <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="F90" s="6"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="1" t="s">
         <v>137</v>
       </c>
@@ -2107,10 +2517,13 @@
         <v>135</v>
       </c>
       <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="F91" s="6"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="1" t="s">
         <v>138</v>
       </c>
@@ -2118,10 +2531,13 @@
         <v>135</v>
       </c>
       <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="F92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="1" t="s">
         <v>139</v>
       </c>
@@ -2129,10 +2545,13 @@
         <v>135</v>
       </c>
       <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="F93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="1" t="s">
         <v>140</v>
       </c>
@@ -2140,10 +2559,13 @@
         <v>135</v>
       </c>
       <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="F94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="1" t="s">
         <v>141</v>
       </c>
@@ -2151,10 +2573,13 @@
         <v>135</v>
       </c>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="F95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="1" t="s">
         <v>142</v>
       </c>
@@ -2162,12 +2587,15 @@
         <v>135</v>
       </c>
       <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="F96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
         <v>39</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="8">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2177,10 +2605,13 @@
         <v>620</v>
       </c>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="F97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="1" t="s">
         <v>144</v>
       </c>
@@ -2188,8 +2619,11 @@
         <v>620</v>
       </c>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>40</v>
       </c>
@@ -2203,8 +2637,11 @@
         <v>8</v>
       </c>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>41</v>
       </c>
@@ -2218,8 +2655,11 @@
         <v>9</v>
       </c>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42</v>
       </c>
@@ -2233,8 +2673,11 @@
         <v>10</v>
       </c>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="6"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43</v>
       </c>
@@ -2248,8 +2691,11 @@
         <v>11</v>
       </c>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44</v>
       </c>
@@ -2263,8 +2709,11 @@
         <v>12</v>
       </c>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45</v>
       </c>
@@ -2278,8 +2727,11 @@
         <v>13</v>
       </c>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>46</v>
       </c>
@@ -2293,8 +2745,11 @@
         <v>330</v>
       </c>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>47</v>
       </c>
@@ -2308,8 +2763,11 @@
         <v>153</v>
       </c>
       <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>48</v>
       </c>
@@ -2323,8 +2781,11 @@
         <v>155</v>
       </c>
       <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>49</v>
       </c>
@@ -2338,8 +2799,11 @@
         <v>157</v>
       </c>
       <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="6"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>50</v>
       </c>
@@ -2353,8 +2817,11 @@
         <v>159</v>
       </c>
       <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="6"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>51</v>
       </c>
@@ -2368,8 +2835,11 @@
         <v>161</v>
       </c>
       <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="F110" s="6"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>52</v>
       </c>
@@ -2380,11 +2850,14 @@
         <v>162</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="7"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>53</v>
       </c>
@@ -2392,14 +2865,17 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="7"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>54</v>
       </c>
@@ -2407,14 +2883,17 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="7"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>55</v>
       </c>
@@ -2422,14 +2901,17 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="F114" s="7"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>56</v>
       </c>
@@ -2437,14 +2919,17 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="7"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>57</v>
       </c>
@@ -2452,14 +2937,17 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="6"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>58</v>
       </c>
@@ -2467,47 +2955,168 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="3"/>
+      <c r="F117" s="6"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="147">
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="A89:A96"/>
     <mergeCell ref="B89:B96"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="B63:B72"/>
     <mergeCell ref="A73:A77"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/1_ShowerTerminal/Hardware/1_Schematic/Terminal_BOM.xlsx
+++ b/Project/1_ShowerTerminal/Hardware/1_Schematic/Terminal_BOM.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PKU\SmartPublicBathroom\Project\1_ShowerTerminal\Hardware\1_Schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD9AF6-D9C5-45F7-8451-DB88F40A122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E0EFFD-3E81-473E-B547-C745E4518BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23910" yWindow="1080" windowWidth="14265" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="14400" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$117</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="219">
   <si>
     <t>DY-IR333C-A</t>
   </si>
@@ -587,15 +591,145 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1x3, 2.54mm, C146243</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1x2, 2.54mm, C49661</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1x2, 5mm, C474904</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C720471</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C93157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2887586</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x3, 2.54mm, C541850</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2u</t>
+  </si>
+  <si>
+    <t>20pF</t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>RH-30W_PORT</t>
+  </si>
+  <si>
+    <t>FLOWMETER_PORT</t>
+  </si>
+  <si>
+    <t>DS18B20_PORT</t>
+  </si>
+  <si>
+    <t>VALVE_PORT</t>
+  </si>
+  <si>
+    <t>NFC_PORT</t>
+  </si>
+  <si>
+    <t>LCD_PORT</t>
+  </si>
+  <si>
+    <t>SPEAKER_PORT</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>SWD_PORT</t>
+  </si>
+  <si>
+    <t>FCM1608</t>
+  </si>
+  <si>
+    <t>TLV1117LV33</t>
+  </si>
+  <si>
+    <t>TLV2374</t>
+  </si>
+  <si>
+    <t>STM32F401RE</t>
+  </si>
+  <si>
+    <t>额外模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS18B20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC读卡器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示屏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬声器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键帽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,8 +769,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,8 +836,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -694,12 +887,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -722,13 +930,52 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,7 +983,50 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{F07A254C-B462-4796-BFE0-9250AE262CA7}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1014,13 +1304,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A117A90-0C3F-41B1-8E92-457460A557A0}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:G48"/>
+    <sheetView topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20.625" style="1"/>
+    <col min="1" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
     <col min="8" max="9" width="20.625" style="2"/>
     <col min="10" max="16384" width="20.625" style="1"/>
@@ -1048,16 +1339,16 @@
       <c r="G1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1068,13 +1359,13 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1083,13 +1374,13 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1098,13 +1389,13 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1113,13 +1404,13 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1128,13 +1419,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1143,13 +1434,13 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1158,13 +1449,13 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1173,13 +1464,13 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1188,13 +1479,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1203,13 +1494,13 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1218,13 +1509,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1233,13 +1524,13 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1248,13 +1539,13 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1263,13 +1554,13 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1278,13 +1569,13 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1293,13 +1584,13 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1308,13 +1599,13 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1323,15 +1614,15 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="19">
         <v>2</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="19">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1343,12 +1634,14 @@
       <c r="E20" s="3"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1358,14 +1651,16 @@
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="19">
         <v>3</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="19">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1376,13 +1671,13 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1391,13 +1686,13 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1406,13 +1701,13 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1421,13 +1716,13 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1436,13 +1731,13 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1451,9 +1746,9 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1470,9 +1765,9 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1489,15 +1784,15 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="19">
         <v>6</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1508,13 +1803,13 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1523,15 +1818,15 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="19">
         <v>7</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="19">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1542,13 +1837,13 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1557,9 +1852,9 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1576,9 +1871,9 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -1595,9 +1890,9 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -1614,15 +1909,15 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="19">
         <v>11</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="19">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1634,12 +1929,14 @@
       <c r="E37" s="3"/>
       <c r="F37" s="6"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1649,12 +1946,14 @@
       <c r="E38" s="3"/>
       <c r="F38" s="6"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="H38" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1664,8 +1963,10 @@
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="H39" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -1682,9 +1983,9 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -1701,9 +2002,9 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -1720,9 +2021,9 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -1739,15 +2040,15 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+      <c r="A44" s="19">
         <v>16</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="19">
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1758,12 +2059,13 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -1772,12 +2074,13 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="1" t="s">
         <v>81</v>
       </c>
@@ -1786,12 +2089,13 @@
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="7"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="1" t="s">
         <v>82</v>
       </c>
@@ -1800,8 +2104,9 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -1818,8 +2123,9 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -1835,9 +2141,12 @@
         <v>85</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -1854,10 +2163,11 @@
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="7"/>
-      <c r="H50" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I50" s="8"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -1874,10 +2184,11 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="7"/>
-      <c r="H51" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -1894,10 +2205,11 @@
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="6"/>
-      <c r="H52" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -1914,10 +2226,11 @@
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="7"/>
-      <c r="H53" s="8" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="I53" s="8"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -1934,10 +2247,11 @@
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="7"/>
-      <c r="H54" s="8" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I54" s="8"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -1954,10 +2268,11 @@
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="6"/>
-      <c r="H55" s="8" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I55" s="8"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -1974,10 +2289,11 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="6"/>
-      <c r="H56" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -1994,14 +2310,15 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="6"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58" s="19">
         <v>27</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="19">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2012,12 +2329,13 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="6"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="1" t="s">
         <v>103</v>
       </c>
@@ -2026,12 +2344,13 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="6"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="1" t="s">
         <v>104</v>
       </c>
@@ -2040,8 +2359,9 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="6"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
@@ -2058,8 +2378,9 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="7"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -2076,14 +2397,15 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="7"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63" s="19">
         <v>30</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="19">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2094,12 +2416,13 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="6"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="1" t="s">
         <v>109</v>
       </c>
@@ -2108,12 +2431,13 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="6"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
@@ -2122,12 +2446,13 @@
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="6"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="1" t="s">
         <v>111</v>
       </c>
@@ -2136,12 +2461,13 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="6"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="1" t="s">
         <v>112</v>
       </c>
@@ -2150,12 +2476,13 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="6"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="1" t="s">
         <v>113</v>
       </c>
@@ -2164,12 +2491,13 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="6"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="1" t="s">
         <v>114</v>
       </c>
@@ -2178,12 +2506,13 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="6"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="1" t="s">
         <v>115</v>
       </c>
@@ -2192,12 +2521,13 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="6"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="1" t="s">
         <v>116</v>
       </c>
@@ -2206,12 +2536,13 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="6"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="1" t="s">
         <v>117</v>
       </c>
@@ -2220,14 +2551,15 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="6"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+      <c r="A73" s="19">
         <v>31</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="19">
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2238,12 +2570,13 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="6"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="1" t="s">
         <v>119</v>
       </c>
@@ -2252,12 +2585,13 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="6"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="1" t="s">
         <v>120</v>
       </c>
@@ -2266,12 +2600,13 @@
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="6"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="1" t="s">
         <v>121</v>
       </c>
@@ -2280,12 +2615,13 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="6"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="1" t="s">
         <v>122</v>
       </c>
@@ -2294,8 +2630,9 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="6"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -2312,14 +2649,15 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="6"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+      <c r="A79" s="19">
         <v>33</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="19">
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2330,12 +2668,13 @@
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="6"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="1" t="s">
         <v>125</v>
       </c>
@@ -2344,12 +2683,13 @@
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="6"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="1" t="s">
         <v>126</v>
       </c>
@@ -2358,12 +2698,13 @@
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="6"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="1" t="s">
         <v>127</v>
       </c>
@@ -2372,14 +2713,15 @@
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="6"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+      <c r="A83" s="19">
         <v>34</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="19">
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2390,12 +2732,13 @@
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="6"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="1" t="s">
         <v>129</v>
       </c>
@@ -2404,8 +2747,9 @@
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="6"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -2422,14 +2766,15 @@
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="6"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+      <c r="A86" s="19">
         <v>36</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="19">
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2440,12 +2785,13 @@
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="6"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="1" t="s">
         <v>132</v>
       </c>
@@ -2454,8 +2800,9 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="6"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -2472,14 +2819,15 @@
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="6"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+      <c r="A89" s="19">
         <v>38</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="19">
         <v>8</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2490,12 +2838,13 @@
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="6"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="1" t="s">
         <v>136</v>
       </c>
@@ -2504,12 +2853,13 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="6"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="1" t="s">
         <v>137</v>
       </c>
@@ -2518,12 +2868,13 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="6"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="1" t="s">
         <v>138</v>
       </c>
@@ -2532,12 +2883,13 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="6"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="1" t="s">
         <v>139</v>
       </c>
@@ -2546,12 +2898,13 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="6"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="1" t="s">
         <v>140</v>
       </c>
@@ -2560,12 +2913,13 @@
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="6"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="1" t="s">
         <v>141</v>
       </c>
@@ -2574,12 +2928,13 @@
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="6"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="1" t="s">
         <v>142</v>
       </c>
@@ -2588,14 +2943,15 @@
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="6"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="A97" s="19">
         <v>39</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="19">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2606,12 +2962,13 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="6"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="1" t="s">
         <v>144</v>
       </c>
@@ -2620,8 +2977,9 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="6"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -2638,8 +2996,9 @@
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="6"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -2656,8 +3015,9 @@
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="6"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -2674,8 +3034,9 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="6"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -2692,8 +3053,9 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="6"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -2710,8 +3072,9 @@
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="6"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -2728,8 +3091,9 @@
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="6"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -2746,8 +3110,9 @@
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="6"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -2764,8 +3129,11 @@
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="6"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -2782,8 +3150,11 @@
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="6"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I107" s="19"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -2800,8 +3171,11 @@
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="6"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -2818,8 +3192,11 @@
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="6"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -2836,8 +3213,11 @@
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="6"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -2854,8 +3234,9 @@
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="7"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -2872,8 +3253,9 @@
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="7"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -2890,8 +3272,9 @@
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="7"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -2908,8 +3291,9 @@
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="7"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
@@ -2926,8 +3310,9 @@
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="7"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -2944,8 +3329,9 @@
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="6"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -2962,8 +3348,9 @@
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="6"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -3119,4 +3506,3285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3503DE7F-D8F1-40A4-A04A-11CBB8321C86}">
+  <dimension ref="A1:J117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111:J111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.625" style="12"/>
+    <col min="4" max="4" width="25.625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="20.625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>3</v>
+      </c>
+      <c r="B22" s="21">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>4</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>5</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>6</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>7</v>
+      </c>
+      <c r="B31" s="21">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21">
+        <v>2</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>9</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>10</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>11</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>12</v>
+      </c>
+      <c r="B38" s="21">
+        <v>4</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>13</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>14</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>15</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>16</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
+        <v>17</v>
+      </c>
+      <c r="B46" s="21">
+        <v>4</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>18</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>19</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>20</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>21</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>22</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>23</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>24</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>25</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>26</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>27</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="21">
+        <v>28</v>
+      </c>
+      <c r="B60" s="21">
+        <v>3</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>29</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>30</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="21">
+        <v>31</v>
+      </c>
+      <c r="B65" s="21">
+        <v>5</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="13">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="21">
+        <v>32</v>
+      </c>
+      <c r="B70" s="21">
+        <v>9</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="21">
+        <v>33</v>
+      </c>
+      <c r="B79" s="21">
+        <v>2</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="13">
+        <v>220</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="13">
+        <v>220</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="21">
+        <v>34</v>
+      </c>
+      <c r="B81" s="21">
+        <v>4</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="13">
+        <v>100</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="13">
+        <v>100</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="13">
+        <v>100</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="13">
+        <v>100</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="13">
+        <v>35</v>
+      </c>
+      <c r="B85" s="13">
+        <v>1</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="21">
+        <v>36</v>
+      </c>
+      <c r="B86" s="21">
+        <v>2</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="13">
+        <v>37</v>
+      </c>
+      <c r="B88" s="13">
+        <v>1</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="21">
+        <v>38</v>
+      </c>
+      <c r="B89" s="21">
+        <v>8</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>39</v>
+      </c>
+      <c r="B97" s="21">
+        <v>2</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D97" s="13">
+        <v>620</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="13">
+        <v>620</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="13">
+        <v>40</v>
+      </c>
+      <c r="B99" s="13">
+        <v>1</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="13">
+        <v>41</v>
+      </c>
+      <c r="B100" s="13">
+        <v>1</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="13">
+        <v>42</v>
+      </c>
+      <c r="B101" s="13">
+        <v>1</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
+        <v>43</v>
+      </c>
+      <c r="B102" s="13">
+        <v>1</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
+        <v>44</v>
+      </c>
+      <c r="B103" s="13">
+        <v>1</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="13">
+        <v>45</v>
+      </c>
+      <c r="B104" s="13">
+        <v>1</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="13">
+        <v>46</v>
+      </c>
+      <c r="B105" s="13">
+        <v>1</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" s="13">
+        <v>330</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="13">
+        <v>47</v>
+      </c>
+      <c r="B106" s="13">
+        <v>1</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J106" s="23"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="13">
+        <v>48</v>
+      </c>
+      <c r="B107" s="13">
+        <v>1</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J107" s="23"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="13">
+        <v>49</v>
+      </c>
+      <c r="B108" s="13">
+        <v>1</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J108" s="23"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="13">
+        <v>50</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J109" s="23"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="13">
+        <v>51</v>
+      </c>
+      <c r="B110" s="13">
+        <v>1</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J110" s="23"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="13">
+        <v>52</v>
+      </c>
+      <c r="B111" s="13">
+        <v>1</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="13">
+        <v>53</v>
+      </c>
+      <c r="B112" s="13">
+        <v>1</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="13">
+        <v>54</v>
+      </c>
+      <c r="B113" s="13">
+        <v>1</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="13">
+        <v>55</v>
+      </c>
+      <c r="B114" s="13">
+        <v>1</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="13">
+        <v>56</v>
+      </c>
+      <c r="B115" s="13">
+        <v>1</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="13">
+        <v>57</v>
+      </c>
+      <c r="B116" s="13">
+        <v>1</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="13">
+        <v>58</v>
+      </c>
+      <c r="B117" s="13">
+        <v>1</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J117" xr:uid="{3503DE7F-D8F1-40A4-A04A-11CBB8321C86}">
+    <filterColumn colId="8" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="147">
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="B70:B78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A38:A41"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"立创"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 I1:J1">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"立创"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G1 I1:J1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"已有"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:J1 A2:H117">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"未购买"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>